--- a/data/exported_data.xlsx
+++ b/data/exported_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7480K37</t>
+          <t>TEST</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -466,12 +466,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Homeserve</t>
+          <t>Python Test Account</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Private &amp; Domestic</t>
+          <t>Social Housing</t>
         </is>
       </c>
       <c r="E2" t="b">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AVANT</t>
+          <t>7480K37</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Avant Homes</t>
+          <t>Homeserve</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -505,39 +505,99 @@
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Margin</t>
+          <t>SLP</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>77363B3</t>
+          <t>AVANT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Avant Homes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Private &amp; Domestic</t>
+        </is>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Margin</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0191AK39</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>GC</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Test Account</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Test Account Two</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Social Housing</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Margin</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>938393A</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Test Account Three</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>New Build</t>
         </is>
       </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>SLP</t>
         </is>
